--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rumman Fardeen\Desktop\DSA_Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E91C7E-7446-45D2-BB20-804AAD856A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC86BB-615F-47B1-B92B-B20C091B6633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
